--- a/Portfolio_Opt.xlsx
+++ b/Portfolio_Opt.xlsx
@@ -1,92 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirill\Desktop\Coursework\Coursework_5_Portfolio_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3125CE9D-2AF0-403B-9582-67148F5B0F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69D4394-C184-45A9-ADDA-771226BF4B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7545A19D-CB0F-4813-A044-88D1871F6A88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7545A19D-CB0F-4813-A044-88D1871F6A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Return-Risks" sheetId="2" r:id="rId2"/>
     <sheet name="Scenarios" sheetId="3" r:id="rId3"/>
+    <sheet name="Risk-free" sheetId="4" r:id="rId4"/>
+    <sheet name="Sharpe" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Return-Risks'!$M$16:$T$16</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Risk-free'!$M$6:$M$14</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Scenarios!$L$5:$L$12</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Sharpe!$G$6:$G$14</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Return-Risks'!$N$20</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Risk-free'!$M$15</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Scenarios!$L$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Sharpe!$G$15</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Return-Risks'!$N$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Risk-free'!$M$6:$M$14</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Scenarios!$L$5:$L$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Sharpe!$G$6:$G$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Risk-free'!$M$6:$M$14</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Scenarios!$L$5:$L$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Sharpe!$G$6:$G$14</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Return-Risks'!$N$19</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Risk-free'!$M$16</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Scenarios!$L$14</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Sharpe!$G$18</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Return-Risks'!$R$20</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0.25</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0.25</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0.25</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">0.1</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">0.1</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">0.1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Дата</t>
   </si>
@@ -223,7 +297,25 @@
     <t>Максимальный доход</t>
   </si>
   <si>
-    <t>Без ограничения по риску</t>
+    <t>(Без ограничения по риску)</t>
+  </si>
+  <si>
+    <t>Портфель с долей безрисковых активов (гос. облигации)</t>
+  </si>
+  <si>
+    <t>Сценарии</t>
+  </si>
+  <si>
+    <t>Безрисковый доход</t>
+  </si>
+  <si>
+    <t>Максимизация коэф. Шарпа</t>
+  </si>
+  <si>
+    <t>Шарп</t>
+  </si>
+  <si>
+    <t>Коэффициент Шарпа</t>
   </si>
 </sst>
 </file>
@@ -232,7 +324,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -296,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,8 +437,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -552,20 +650,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -576,15 +743,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -592,37 +753,16 @@
     <xf numFmtId="10" fontId="5" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="8" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="8" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -630,6 +770,59 @@
     <xf numFmtId="10" fontId="5" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="9" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -664,8 +857,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="335279" cy="409920"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -707,6 +900,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -743,7 +937,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -813,8 +1007,8 @@
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="335279" cy="409920"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -856,6 +1050,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -892,7 +1087,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -947,6 +1142,632 @@
                 <a:t>𝑊</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="335279" cy="409920"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED13D75D-4ED0-41CF-BCCC-F2F86928FEED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409700" y="2529840"/>
+              <a:ext cx="335279" cy="409920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑊</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED13D75D-4ED0-41CF-BCCC-F2F86928FEED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409700" y="2529840"/>
+              <a:ext cx="335279" cy="409920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒𝑊</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="335279" cy="409920"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4712E354-377E-4549-86CC-720F12E113BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5021581" y="2674620"/>
+              <a:ext cx="335279" cy="409920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑊</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4712E354-377E-4549-86CC-720F12E113BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5021581" y="2674620"/>
+              <a:ext cx="335279" cy="409920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒𝑊</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313886" cy="621709"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB790742-F5E4-41EA-ADA4-DAE7062D182D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4884420" y="636270"/>
+              <a:ext cx="1313886" cy="621709"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="2000" b="0" i="1">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆h</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="2000" b="0" i="1">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="2000" i="1">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="2000" b="0" i="1">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="2000" b="0" i="1">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="2000" b="0" i="1">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="2000" b="0" i="1">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑟</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="2000" b="0" i="1">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="2000" b="0" i="1">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="2000" i="1">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜎</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="2000" b="0" i="1">
+                                <a:ln>
+                                  <a:noFill/>
+                                </a:ln>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑝</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="2000">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB790742-F5E4-41EA-ADA4-DAE7062D182D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4884420" y="636270"/>
+              <a:ext cx="1313886" cy="621709"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="2000" b="0" i="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆ℎ=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="2000" i="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="2000" b="0" i="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑟−𝑟_𝑓)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="2000" i="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="2000" b="0" i="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_𝑝 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="2000">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1256,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB79E58-DBFA-497C-A09D-F22272529004}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A160"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,7 +2129,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>39448</v>
       </c>
       <c r="B4" s="2">
@@ -1337,7 +2158,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>39479</v>
       </c>
       <c r="B5" s="2">
@@ -1366,7 +2187,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>39508</v>
       </c>
       <c r="B6">
@@ -1395,7 +2216,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>39539</v>
       </c>
       <c r="B7">
@@ -1424,7 +2245,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>39569</v>
       </c>
       <c r="B8">
@@ -1453,7 +2274,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>39600</v>
       </c>
       <c r="B9">
@@ -1482,7 +2303,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>39630</v>
       </c>
       <c r="B10">
@@ -1511,7 +2332,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>39661</v>
       </c>
       <c r="B11">
@@ -1540,7 +2361,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>39692</v>
       </c>
       <c r="B12">
@@ -1569,7 +2390,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>39722</v>
       </c>
       <c r="B13">
@@ -1598,7 +2419,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>39753</v>
       </c>
       <c r="B14">
@@ -1627,7 +2448,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>39783</v>
       </c>
       <c r="B15">
@@ -1656,7 +2477,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>39814</v>
       </c>
       <c r="B16">
@@ -1685,7 +2506,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>39845</v>
       </c>
       <c r="B17">
@@ -1714,7 +2535,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>39873</v>
       </c>
       <c r="B18">
@@ -1743,7 +2564,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <v>39904</v>
       </c>
       <c r="B19">
@@ -1772,7 +2593,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>39934</v>
       </c>
       <c r="B20">
@@ -1801,7 +2622,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>39965</v>
       </c>
       <c r="B21">
@@ -1830,7 +2651,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>39995</v>
       </c>
       <c r="B22">
@@ -1859,7 +2680,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>40026</v>
       </c>
       <c r="B23">
@@ -1888,7 +2709,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>40057</v>
       </c>
       <c r="B24">
@@ -1917,7 +2738,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>40087</v>
       </c>
       <c r="B25">
@@ -1946,7 +2767,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>40118</v>
       </c>
       <c r="B26">
@@ -1975,7 +2796,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>40148</v>
       </c>
       <c r="B27">
@@ -2004,7 +2825,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>40179</v>
       </c>
       <c r="B28">
@@ -2033,7 +2854,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="A29" s="14">
         <v>40210</v>
       </c>
       <c r="B29">
@@ -2062,7 +2883,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>40238</v>
       </c>
       <c r="B30">
@@ -2091,7 +2912,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>40269</v>
       </c>
       <c r="B31">
@@ -2120,7 +2941,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>40299</v>
       </c>
       <c r="B32">
@@ -2149,7 +2970,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33" s="14">
         <v>40330</v>
       </c>
       <c r="B33">
@@ -2178,7 +2999,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>40360</v>
       </c>
       <c r="B34">
@@ -2207,7 +3028,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>40391</v>
       </c>
       <c r="B35">
@@ -2236,7 +3057,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
+      <c r="A36" s="14">
         <v>40422</v>
       </c>
       <c r="B36">
@@ -2265,7 +3086,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
+      <c r="A37" s="14">
         <v>40452</v>
       </c>
       <c r="B37">
@@ -2294,7 +3115,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
+      <c r="A38" s="14">
         <v>40483</v>
       </c>
       <c r="B38">
@@ -2323,7 +3144,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+      <c r="A39" s="14">
         <v>40513</v>
       </c>
       <c r="B39">
@@ -2352,7 +3173,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
+      <c r="A40" s="14">
         <v>40544</v>
       </c>
       <c r="B40">
@@ -2381,7 +3202,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
+      <c r="A41" s="14">
         <v>40575</v>
       </c>
       <c r="B41">
@@ -2410,7 +3231,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
+      <c r="A42" s="14">
         <v>40603</v>
       </c>
       <c r="B42">
@@ -2439,7 +3260,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
+      <c r="A43" s="14">
         <v>40634</v>
       </c>
       <c r="B43">
@@ -2468,7 +3289,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
+      <c r="A44" s="14">
         <v>40664</v>
       </c>
       <c r="B44">
@@ -2497,7 +3318,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
+      <c r="A45" s="14">
         <v>40695</v>
       </c>
       <c r="B45">
@@ -2526,7 +3347,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
+      <c r="A46" s="14">
         <v>40725</v>
       </c>
       <c r="B46">
@@ -2555,7 +3376,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
+      <c r="A47" s="14">
         <v>40756</v>
       </c>
       <c r="B47">
@@ -2584,7 +3405,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
+      <c r="A48" s="14">
         <v>40787</v>
       </c>
       <c r="B48">
@@ -2613,7 +3434,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
+      <c r="A49" s="14">
         <v>40817</v>
       </c>
       <c r="B49">
@@ -2642,7 +3463,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
+      <c r="A50" s="14">
         <v>40848</v>
       </c>
       <c r="B50">
@@ -2671,7 +3492,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
+      <c r="A51" s="14">
         <v>40878</v>
       </c>
       <c r="B51">
@@ -2700,7 +3521,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
+      <c r="A52" s="14">
         <v>40909</v>
       </c>
       <c r="B52">
@@ -2729,7 +3550,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
+      <c r="A53" s="14">
         <v>40940</v>
       </c>
       <c r="B53">
@@ -2758,7 +3579,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
+      <c r="A54" s="14">
         <v>40969</v>
       </c>
       <c r="B54">
@@ -2787,7 +3608,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
+      <c r="A55" s="14">
         <v>41000</v>
       </c>
       <c r="B55">
@@ -2816,7 +3637,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
+      <c r="A56" s="14">
         <v>41030</v>
       </c>
       <c r="B56">
@@ -2845,7 +3666,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
+      <c r="A57" s="14">
         <v>41061</v>
       </c>
       <c r="B57">
@@ -2874,7 +3695,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
+      <c r="A58" s="14">
         <v>41091</v>
       </c>
       <c r="B58">
@@ -2903,7 +3724,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
+      <c r="A59" s="14">
         <v>41122</v>
       </c>
       <c r="B59">
@@ -2932,7 +3753,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
+      <c r="A60" s="14">
         <v>41153</v>
       </c>
       <c r="B60">
@@ -2961,7 +3782,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="16">
+      <c r="A61" s="14">
         <v>41183</v>
       </c>
       <c r="B61">
@@ -2990,7 +3811,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
+      <c r="A62" s="14">
         <v>41214</v>
       </c>
       <c r="B62">
@@ -3019,7 +3840,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
+      <c r="A63" s="14">
         <v>41244</v>
       </c>
       <c r="B63">
@@ -3048,7 +3869,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="16">
+      <c r="A64" s="14">
         <v>41275</v>
       </c>
       <c r="B64">
@@ -3077,7 +3898,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="16">
+      <c r="A65" s="14">
         <v>41306</v>
       </c>
       <c r="B65">
@@ -3106,7 +3927,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
+      <c r="A66" s="14">
         <v>41334</v>
       </c>
       <c r="B66">
@@ -3135,7 +3956,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
+      <c r="A67" s="14">
         <v>41365</v>
       </c>
       <c r="B67">
@@ -3164,7 +3985,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
+      <c r="A68" s="14">
         <v>41395</v>
       </c>
       <c r="B68">
@@ -3193,7 +4014,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
+      <c r="A69" s="14">
         <v>41426</v>
       </c>
       <c r="B69">
@@ -3222,7 +4043,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="16">
+      <c r="A70" s="14">
         <v>41456</v>
       </c>
       <c r="B70">
@@ -3251,7 +4072,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
+      <c r="A71" s="14">
         <v>41487</v>
       </c>
       <c r="B71">
@@ -3280,7 +4101,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
+      <c r="A72" s="14">
         <v>41518</v>
       </c>
       <c r="B72">
@@ -3309,7 +4130,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
+      <c r="A73" s="14">
         <v>41548</v>
       </c>
       <c r="B73">
@@ -3338,7 +4159,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
+      <c r="A74" s="14">
         <v>41579</v>
       </c>
       <c r="B74">
@@ -3367,7 +4188,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
+      <c r="A75" s="14">
         <v>41609</v>
       </c>
       <c r="B75">
@@ -3396,7 +4217,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="16">
+      <c r="A76" s="14">
         <v>41640</v>
       </c>
       <c r="B76">
@@ -3425,7 +4246,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
+      <c r="A77" s="14">
         <v>41671</v>
       </c>
       <c r="B77">
@@ -3454,7 +4275,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="16">
+      <c r="A78" s="14">
         <v>41699</v>
       </c>
       <c r="B78">
@@ -3483,7 +4304,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="16">
+      <c r="A79" s="14">
         <v>41730</v>
       </c>
       <c r="B79">
@@ -3512,7 +4333,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
+      <c r="A80" s="14">
         <v>41760</v>
       </c>
       <c r="B80">
@@ -3541,7 +4362,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="16">
+      <c r="A81" s="14">
         <v>41791</v>
       </c>
       <c r="B81">
@@ -3570,7 +4391,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="16">
+      <c r="A82" s="14">
         <v>41821</v>
       </c>
       <c r="B82">
@@ -3599,7 +4420,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="16">
+      <c r="A83" s="14">
         <v>41852</v>
       </c>
       <c r="B83">
@@ -3628,7 +4449,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="16">
+      <c r="A84" s="14">
         <v>41883</v>
       </c>
       <c r="B84">
@@ -3657,7 +4478,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="16">
+      <c r="A85" s="14">
         <v>41913</v>
       </c>
       <c r="B85">
@@ -3686,7 +4507,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="16">
+      <c r="A86" s="14">
         <v>41944</v>
       </c>
       <c r="B86">
@@ -3715,7 +4536,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="16">
+      <c r="A87" s="14">
         <v>41974</v>
       </c>
       <c r="B87">
@@ -3744,7 +4565,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="16">
+      <c r="A88" s="14">
         <v>42005</v>
       </c>
       <c r="B88">
@@ -3773,7 +4594,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
+      <c r="A89" s="14">
         <v>42036</v>
       </c>
       <c r="B89">
@@ -3802,7 +4623,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="16">
+      <c r="A90" s="14">
         <v>42064</v>
       </c>
       <c r="B90">
@@ -3831,7 +4652,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="16">
+      <c r="A91" s="14">
         <v>42095</v>
       </c>
       <c r="B91">
@@ -3860,7 +4681,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="16">
+      <c r="A92" s="14">
         <v>42125</v>
       </c>
       <c r="B92">
@@ -3889,7 +4710,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
+      <c r="A93" s="14">
         <v>42156</v>
       </c>
       <c r="B93">
@@ -3918,7 +4739,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="16">
+      <c r="A94" s="14">
         <v>42186</v>
       </c>
       <c r="B94">
@@ -3947,7 +4768,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
+      <c r="A95" s="14">
         <v>42217</v>
       </c>
       <c r="B95">
@@ -3976,7 +4797,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="16">
+      <c r="A96" s="14">
         <v>42248</v>
       </c>
       <c r="B96">
@@ -4005,7 +4826,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="16">
+      <c r="A97" s="14">
         <v>42278</v>
       </c>
       <c r="B97">
@@ -4034,7 +4855,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="16">
+      <c r="A98" s="14">
         <v>42309</v>
       </c>
       <c r="B98">
@@ -4063,7 +4884,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="16">
+      <c r="A99" s="14">
         <v>42339</v>
       </c>
       <c r="B99">
@@ -4092,7 +4913,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="16">
+      <c r="A100" s="14">
         <v>42370</v>
       </c>
       <c r="B100">
@@ -4121,7 +4942,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="16">
+      <c r="A101" s="14">
         <v>42401</v>
       </c>
       <c r="B101">
@@ -4150,7 +4971,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="16">
+      <c r="A102" s="14">
         <v>42430</v>
       </c>
       <c r="B102">
@@ -4179,7 +5000,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="16">
+      <c r="A103" s="14">
         <v>42461</v>
       </c>
       <c r="B103">
@@ -4208,7 +5029,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="16">
+      <c r="A104" s="14">
         <v>42491</v>
       </c>
       <c r="B104">
@@ -4237,7 +5058,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="16">
+      <c r="A105" s="14">
         <v>42522</v>
       </c>
       <c r="B105">
@@ -4266,7 +5087,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="16">
+      <c r="A106" s="14">
         <v>42552</v>
       </c>
       <c r="B106">
@@ -4295,7 +5116,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="16">
+      <c r="A107" s="14">
         <v>42583</v>
       </c>
       <c r="B107">
@@ -4324,7 +5145,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="16">
+      <c r="A108" s="14">
         <v>42614</v>
       </c>
       <c r="B108">
@@ -4353,7 +5174,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="16">
+      <c r="A109" s="14">
         <v>42644</v>
       </c>
       <c r="B109">
@@ -4382,7 +5203,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="16">
+      <c r="A110" s="14">
         <v>42675</v>
       </c>
       <c r="B110">
@@ -4411,7 +5232,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="16">
+      <c r="A111" s="14">
         <v>42705</v>
       </c>
       <c r="B111">
@@ -4440,7 +5261,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="16">
+      <c r="A112" s="14">
         <v>42736</v>
       </c>
       <c r="B112">
@@ -4469,7 +5290,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="16">
+      <c r="A113" s="14">
         <v>42767</v>
       </c>
       <c r="B113">
@@ -4498,7 +5319,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="16">
+      <c r="A114" s="14">
         <v>42795</v>
       </c>
       <c r="B114">
@@ -4527,7 +5348,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
+      <c r="A115" s="14">
         <v>42826</v>
       </c>
       <c r="B115">
@@ -4556,7 +5377,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="16">
+      <c r="A116" s="14">
         <v>42856</v>
       </c>
       <c r="B116">
@@ -4585,7 +5406,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="16">
+      <c r="A117" s="14">
         <v>42887</v>
       </c>
       <c r="B117">
@@ -4614,7 +5435,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="16">
+      <c r="A118" s="14">
         <v>42917</v>
       </c>
       <c r="B118">
@@ -4643,7 +5464,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="16">
+      <c r="A119" s="14">
         <v>42948</v>
       </c>
       <c r="B119">
@@ -4672,7 +5493,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="16">
+      <c r="A120" s="14">
         <v>42979</v>
       </c>
       <c r="B120">
@@ -4701,7 +5522,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="16">
+      <c r="A121" s="14">
         <v>43009</v>
       </c>
       <c r="B121">
@@ -4730,7 +5551,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="16">
+      <c r="A122" s="14">
         <v>43040</v>
       </c>
       <c r="B122">
@@ -4759,7 +5580,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="16">
+      <c r="A123" s="14">
         <v>43070</v>
       </c>
       <c r="B123">
@@ -4788,7 +5609,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="16">
+      <c r="A124" s="14">
         <v>43101</v>
       </c>
       <c r="B124">
@@ -4817,7 +5638,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="16">
+      <c r="A125" s="14">
         <v>43132</v>
       </c>
       <c r="B125">
@@ -4846,7 +5667,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="16">
+      <c r="A126" s="14">
         <v>43160</v>
       </c>
       <c r="B126">
@@ -4875,7 +5696,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="16">
+      <c r="A127" s="14">
         <v>43191</v>
       </c>
       <c r="B127">
@@ -4904,7 +5725,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="16">
+      <c r="A128" s="14">
         <v>43221</v>
       </c>
       <c r="B128">
@@ -4933,7 +5754,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="16">
+      <c r="A129" s="14">
         <v>43252</v>
       </c>
       <c r="B129">
@@ -4962,7 +5783,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="16">
+      <c r="A130" s="14">
         <v>43282</v>
       </c>
       <c r="B130">
@@ -4991,7 +5812,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="16">
+      <c r="A131" s="14">
         <v>43313</v>
       </c>
       <c r="B131">
@@ -5020,7 +5841,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="16">
+      <c r="A132" s="14">
         <v>43344</v>
       </c>
       <c r="B132">
@@ -5049,7 +5870,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="16">
+      <c r="A133" s="14">
         <v>43374</v>
       </c>
       <c r="B133">
@@ -5078,7 +5899,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="16">
+      <c r="A134" s="14">
         <v>43405</v>
       </c>
       <c r="B134">
@@ -5107,7 +5928,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="16">
+      <c r="A135" s="14">
         <v>43435</v>
       </c>
       <c r="B135">
@@ -5136,7 +5957,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="16">
+      <c r="A136" s="14">
         <v>43466</v>
       </c>
       <c r="B136">
@@ -5165,7 +5986,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="16">
+      <c r="A137" s="14">
         <v>43497</v>
       </c>
       <c r="B137">
@@ -5194,7 +6015,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="16">
+      <c r="A138" s="14">
         <v>43525</v>
       </c>
       <c r="B138">
@@ -5223,7 +6044,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="16">
+      <c r="A139" s="14">
         <v>43556</v>
       </c>
       <c r="B139">
@@ -5252,7 +6073,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="16">
+      <c r="A140" s="14">
         <v>43586</v>
       </c>
       <c r="B140">
@@ -5281,7 +6102,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="16">
+      <c r="A141" s="14">
         <v>43617</v>
       </c>
       <c r="B141">
@@ -5310,7 +6131,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="16">
+      <c r="A142" s="14">
         <v>43647</v>
       </c>
       <c r="B142">
@@ -5339,7 +6160,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="16">
+      <c r="A143" s="14">
         <v>43678</v>
       </c>
       <c r="B143">
@@ -5368,7 +6189,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="16">
+      <c r="A144" s="14">
         <v>43709</v>
       </c>
       <c r="B144">
@@ -5397,7 +6218,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="16">
+      <c r="A145" s="14">
         <v>43739</v>
       </c>
       <c r="B145">
@@ -5426,7 +6247,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="16">
+      <c r="A146" s="14">
         <v>43770</v>
       </c>
       <c r="B146">
@@ -5455,7 +6276,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="16">
+      <c r="A147" s="14">
         <v>43800</v>
       </c>
       <c r="B147">
@@ -5484,7 +6305,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="16">
+      <c r="A148" s="14">
         <v>43831</v>
       </c>
       <c r="B148">
@@ -5513,7 +6334,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="16">
+      <c r="A149" s="14">
         <v>43862</v>
       </c>
       <c r="B149">
@@ -5542,7 +6363,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="16">
+      <c r="A150" s="14">
         <v>43891</v>
       </c>
       <c r="B150">
@@ -5571,7 +6392,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="16">
+      <c r="A151" s="14">
         <v>43922</v>
       </c>
       <c r="B151">
@@ -5600,7 +6421,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="16">
+      <c r="A152" s="14">
         <v>43952</v>
       </c>
       <c r="B152">
@@ -5629,7 +6450,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="16">
+      <c r="A153" s="14">
         <v>43983</v>
       </c>
       <c r="B153">
@@ -5658,7 +6479,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="16">
+      <c r="A154" s="14">
         <v>44013</v>
       </c>
       <c r="B154">
@@ -5687,7 +6508,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="16">
+      <c r="A155" s="14">
         <v>44044</v>
       </c>
       <c r="B155">
@@ -5716,7 +6537,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="16">
+      <c r="A156" s="14">
         <v>44075</v>
       </c>
       <c r="B156">
@@ -5745,7 +6566,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="16">
+      <c r="A157" s="14">
         <v>44105</v>
       </c>
       <c r="B157">
@@ -5774,7 +6595,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="16">
+      <c r="A158" s="14">
         <v>44136</v>
       </c>
       <c r="B158">
@@ -5803,7 +6624,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="16">
+      <c r="A159" s="14">
         <v>44166</v>
       </c>
       <c r="B159">
@@ -5832,7 +6653,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="16">
+      <c r="A160" s="14">
         <v>44197</v>
       </c>
       <c r="B160">
@@ -5869,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64232075-5C50-4D0D-A0DD-B3321199086F}">
   <dimension ref="A1:U271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5895,81 +6716,81 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7" t="str">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="str">
         <f>Data!B3</f>
         <v>Сбербанк</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <f>Data!C3</f>
         <v>Газпром</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D3" s="6" t="str">
         <f>Data!D3</f>
         <v>МТС</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="6" t="str">
         <f>Data!E3</f>
         <v>Магнит</v>
       </c>
-      <c r="F3" s="7" t="str">
+      <c r="F3" s="6" t="str">
         <f>Data!F3</f>
         <v>Сургнфгз</v>
       </c>
-      <c r="G3" s="7" t="str">
+      <c r="G3" s="6" t="str">
         <f>Data!G3</f>
         <v>РусГидро</v>
       </c>
-      <c r="H3" s="7" t="str">
+      <c r="H3" s="6" t="str">
         <f>Data!H3</f>
         <v>Аэрофлот</v>
       </c>
-      <c r="I3" s="7" t="str">
+      <c r="I3" s="6" t="str">
         <f>Data!I3</f>
         <v>Детский мир</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="N3" s="11" t="str">
+      <c r="J3" s="31"/>
+      <c r="N3" s="10" t="str">
         <f>B3</f>
         <v>Сбербанк</v>
       </c>
-      <c r="O3" s="11" t="str">
+      <c r="O3" s="10" t="str">
         <f t="shared" ref="O3:U3" si="0">C3</f>
         <v>Газпром</v>
       </c>
-      <c r="P3" s="11" t="str">
+      <c r="P3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>МТС</v>
       </c>
-      <c r="Q3" s="11" t="str">
+      <c r="Q3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Магнит</v>
       </c>
-      <c r="R3" s="11" t="str">
+      <c r="R3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Сургнфгз</v>
       </c>
-      <c r="S3" s="11" t="str">
+      <c r="S3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>РусГидро</v>
       </c>
-      <c r="T3" s="11" t="str">
+      <c r="T3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Аэрофлот</v>
       </c>
-      <c r="U3" s="11" t="str">
+      <c r="U3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Детский мир</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="5">
         <f>AVERAGE(B5:B160)</f>
         <v>1.3995138460002138E-2</v>
@@ -6004,7 +6825,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>39448</v>
       </c>
       <c r="B5" s="5">
@@ -6038,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="5">
         <f>_xlfn.STDEV.S(B5:B160)</f>
         <v>0.12162383054037323</v>
@@ -6076,7 +6897,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>39479</v>
       </c>
       <c r="B6" s="5">
@@ -6112,7 +6933,7 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>39508</v>
       </c>
       <c r="B7" s="5">
@@ -6146,37 +6967,37 @@
         <v>0</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>39539</v>
       </c>
       <c r="B8" s="5">
@@ -6210,47 +7031,47 @@
         <v>0</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="42">
+      <c r="K8" s="32">
         <v>1.25E-3</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <f>VARP('Return-Risks'!$B$5:$B$160)</f>
         <v>1.4697533359446031E-2</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <f>M9</f>
         <v>6.4055500849184563E-3</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <f>M10</f>
         <v>6.1596435894974086E-3</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <f>M11</f>
         <v>6.8393025360169203E-3</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <f>M12</f>
         <v>3.9330170702582051E-3</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="11">
         <f>M13</f>
         <v>7.4993703097741898E-3</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="11">
         <f>M14</f>
         <v>7.4803386820181767E-3</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="11">
         <f>M15</f>
         <v>9.3370472234066552E-4</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>39569</v>
       </c>
       <c r="B9" s="5">
@@ -6285,46 +7106,46 @@
         <v>0</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="42">
+      <c r="K9" s="32">
         <v>1.25E-3</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>6.4055500849184563E-3</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <f>VARP('Return-Risks'!$C$5:$C$160)</f>
         <v>6.9203459153501885E-3</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <f>N10</f>
         <v>3.8397987819005206E-3</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <f>N11</f>
         <v>3.5162324751227526E-3</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <f>N12</f>
         <v>2.705653829639291E-3</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="11">
         <f>N13</f>
         <v>4.1034574746386309E-3</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="11">
         <f>N14</f>
         <v>3.1284196948333995E-3</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="11">
         <f>N15</f>
         <v>3.9064323562889181E-4</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>39600</v>
       </c>
       <c r="B10" s="5">
@@ -6359,45 +7180,45 @@
         <v>0</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="42">
+      <c r="K10" s="32">
         <v>1.25E-3</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>6.1596435894974086E-3</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>3.8397987819005206E-3</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <f>VARP('Return-Risks'!$D$5:$D$160)</f>
         <v>6.383994985486802E-3</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <f>O11</f>
         <v>4.7785076990834591E-3</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <f>O12</f>
         <v>2.5737297881972521E-3</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="11">
         <f>O13</f>
         <v>4.050167575947913E-3</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="11">
         <f>N14</f>
         <v>3.1284196948333995E-3</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="11">
         <f>N15</f>
         <v>3.9064323562889181E-4</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>39630</v>
       </c>
       <c r="B11" s="5">
@@ -6432,44 +7253,44 @@
         <v>0</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="42">
+      <c r="K11" s="32">
         <v>1.25E-3</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>6.8393025360169203E-3</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>3.5162324751227526E-3</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>4.7785076990834591E-3</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <f>VARP('Return-Risks'!$E$5:$E$160)</f>
         <v>1.2693620595976793E-2</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <f>P12</f>
         <v>2.5331657558869979E-3</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="11">
         <f>P13</f>
         <v>4.7602841716201123E-3</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="11">
         <f>P14</f>
         <v>3.6929372251699212E-3</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="11">
         <f>P15</f>
         <v>2.847826573357676E-4</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>39661</v>
       </c>
       <c r="B12" s="5">
@@ -6504,43 +7325,43 @@
         <v>0</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="42">
+      <c r="K12" s="32">
         <v>1.25E-3</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>3.9330170702582051E-3</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>2.705653829639291E-3</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>2.5737297881972521E-3</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>2.5331657558869979E-3</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <f>VARP('Return-Risks'!$F$5:$F$160)</f>
         <v>8.6249810807957385E-3</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="11">
         <f>Q13</f>
         <v>2.3235433034224421E-3</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="11">
         <f>Q14</f>
         <v>3.1122836298732885E-3</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="11">
         <f>Q15</f>
         <v>3.1429780460691452E-4</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>39692</v>
       </c>
       <c r="B13" s="5">
@@ -6575,42 +7396,42 @@
         <v>0</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="42">
+      <c r="K13" s="32">
         <v>1.25E-3</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>7.4993703097741898E-3</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>4.1034574746386309E-3</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>4.050167575947913E-3</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>4.7602841716201123E-3</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="11">
         <v>2.3235433034224421E-3</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <f>VARP('Return-Risks'!$G$5:$G$160)</f>
         <v>1.1821784872384005E-2</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="11">
         <f>R14</f>
         <v>3.7001950960525117E-3</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="11">
         <f>R15</f>
         <v>7.5104107700916883E-4</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>39722</v>
       </c>
       <c r="B14" s="5">
@@ -6645,41 +7466,41 @@
         <v>0</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="42">
+      <c r="K14" s="32">
         <v>1.25E-3</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>7.4803386820181767E-3</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <v>3.1284196948333995E-3</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <v>3.4672154547178481E-3</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <v>3.6929372251699212E-3</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <v>3.1122836298732885E-3</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="11">
         <v>3.7001950960525117E-3</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="11">
         <f>VARP('Return-Risks'!$H$5:$H$160)</f>
         <v>1.5514549926814974E-2</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="11">
         <f>S15</f>
         <v>1.1568721812777714E-3</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>39753</v>
       </c>
       <c r="B15" s="5">
@@ -6714,40 +7535,40 @@
         <v>0</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="42">
+      <c r="K15" s="32">
         <v>1.25E-3</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>9.3370472234066552E-4</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>3.9064323562889181E-4</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <v>2.8299457632046461E-4</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>2.847826573357676E-4</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="12">
         <v>3.1429780460691452E-4</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="12">
         <v>7.5104107700916883E-4</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="12">
         <v>1.1568721812777714E-3</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="12">
         <f>VARP('Return-Risks'!$I$5:$I$160)</f>
         <v>1.7086440795461703E-3</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>39783</v>
       </c>
       <c r="B16" s="5">
@@ -6782,36 +7603,36 @@
         <v>0</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="33">
         <v>1.25E-3</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="33">
         <v>1.25E-3</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="33">
         <v>1.25E-3</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="33">
         <v>1.25E-3</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="33">
         <v>1.25E-3</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="33">
         <v>1.25E-3</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="33">
         <v>1.25E-3</v>
       </c>
-      <c r="T16" s="43">
+      <c r="T16" s="33">
         <v>1.25E-3</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>39814</v>
       </c>
       <c r="B17" s="5">
@@ -6848,7 +7669,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>39845</v>
       </c>
       <c r="B18" s="5">
@@ -6885,7 +7706,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <v>39873</v>
       </c>
       <c r="B19" s="5">
@@ -6920,16 +7741,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>39904</v>
       </c>
       <c r="B20" s="5">
@@ -6964,16 +7785,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="5"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="40"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>39934</v>
       </c>
       <c r="B21" s="5">
@@ -7008,16 +7829,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>39965</v>
       </c>
       <c r="B22" s="5">
@@ -7054,7 +7875,7 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>39995</v>
       </c>
       <c r="B23" s="5">
@@ -7091,7 +7912,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>40026</v>
       </c>
       <c r="B24" s="5">
@@ -7128,7 +7949,7 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>40057</v>
       </c>
       <c r="B25" s="5">
@@ -7165,7 +7986,7 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>40087</v>
       </c>
       <c r="B26" s="5">
@@ -7202,7 +8023,7 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>40118</v>
       </c>
       <c r="B27" s="5">
@@ -7239,7 +8060,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>40148</v>
       </c>
       <c r="B28" s="5">
@@ -7276,7 +8097,7 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="A29" s="14">
         <v>40179</v>
       </c>
       <c r="B29" s="5">
@@ -7313,7 +8134,7 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>40210</v>
       </c>
       <c r="B30" s="5">
@@ -7350,7 +8171,7 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>40238</v>
       </c>
       <c r="B31" s="5">
@@ -7387,7 +8208,7 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>40269</v>
       </c>
       <c r="B32" s="5">
@@ -7424,7 +8245,7 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33" s="14">
         <v>40299</v>
       </c>
       <c r="B33" s="5">
@@ -7461,7 +8282,7 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>40330</v>
       </c>
       <c r="B34" s="5">
@@ -7498,7 +8319,7 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>40360</v>
       </c>
       <c r="B35" s="5">
@@ -7535,7 +8356,7 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
+      <c r="A36" s="14">
         <v>40391</v>
       </c>
       <c r="B36" s="5">
@@ -7572,7 +8393,7 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
+      <c r="A37" s="14">
         <v>40422</v>
       </c>
       <c r="B37" s="5">
@@ -7609,7 +8430,7 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
+      <c r="A38" s="14">
         <v>40452</v>
       </c>
       <c r="B38" s="5">
@@ -7646,7 +8467,7 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+      <c r="A39" s="14">
         <v>40483</v>
       </c>
       <c r="B39" s="5">
@@ -7683,7 +8504,7 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
+      <c r="A40" s="14">
         <v>40513</v>
       </c>
       <c r="B40" s="5">
@@ -7720,7 +8541,7 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
+      <c r="A41" s="14">
         <v>40544</v>
       </c>
       <c r="B41" s="5">
@@ -7757,7 +8578,7 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
+      <c r="A42" s="14">
         <v>40575</v>
       </c>
       <c r="B42" s="5">
@@ -7794,7 +8615,7 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
+      <c r="A43" s="14">
         <v>40603</v>
       </c>
       <c r="B43" s="5">
@@ -7831,7 +8652,7 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
+      <c r="A44" s="14">
         <v>40634</v>
       </c>
       <c r="B44" s="5">
@@ -7868,7 +8689,7 @@
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
+      <c r="A45" s="14">
         <v>40664</v>
       </c>
       <c r="B45" s="5">
@@ -7905,7 +8726,7 @@
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
+      <c r="A46" s="14">
         <v>40695</v>
       </c>
       <c r="B46" s="5">
@@ -7942,7 +8763,7 @@
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
+      <c r="A47" s="14">
         <v>40725</v>
       </c>
       <c r="B47" s="5">
@@ -7979,7 +8800,7 @@
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
+      <c r="A48" s="14">
         <v>40756</v>
       </c>
       <c r="B48" s="5">
@@ -8016,7 +8837,7 @@
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
+      <c r="A49" s="14">
         <v>40787</v>
       </c>
       <c r="B49" s="5">
@@ -8053,7 +8874,7 @@
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
+      <c r="A50" s="14">
         <v>40817</v>
       </c>
       <c r="B50" s="5">
@@ -8090,7 +8911,7 @@
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
+      <c r="A51" s="14">
         <v>40848</v>
       </c>
       <c r="B51" s="5">
@@ -8127,7 +8948,7 @@
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
+      <c r="A52" s="14">
         <v>40878</v>
       </c>
       <c r="B52" s="5">
@@ -8164,7 +8985,7 @@
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
+      <c r="A53" s="14">
         <v>40909</v>
       </c>
       <c r="B53" s="5">
@@ -8201,7 +9022,7 @@
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
+      <c r="A54" s="14">
         <v>40940</v>
       </c>
       <c r="B54" s="5">
@@ -8238,7 +9059,7 @@
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
+      <c r="A55" s="14">
         <v>40969</v>
       </c>
       <c r="B55" s="5">
@@ -8275,7 +9096,7 @@
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
+      <c r="A56" s="14">
         <v>41000</v>
       </c>
       <c r="B56" s="5">
@@ -8312,7 +9133,7 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
+      <c r="A57" s="14">
         <v>41030</v>
       </c>
       <c r="B57" s="5">
@@ -8349,7 +9170,7 @@
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
+      <c r="A58" s="14">
         <v>41061</v>
       </c>
       <c r="B58" s="5">
@@ -8386,7 +9207,7 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
+      <c r="A59" s="14">
         <v>41091</v>
       </c>
       <c r="B59" s="5">
@@ -8423,7 +9244,7 @@
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
+      <c r="A60" s="14">
         <v>41122</v>
       </c>
       <c r="B60" s="5">
@@ -8460,7 +9281,7 @@
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="16">
+      <c r="A61" s="14">
         <v>41153</v>
       </c>
       <c r="B61" s="5">
@@ -8497,7 +9318,7 @@
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
+      <c r="A62" s="14">
         <v>41183</v>
       </c>
       <c r="B62" s="5">
@@ -8534,7 +9355,7 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
+      <c r="A63" s="14">
         <v>41214</v>
       </c>
       <c r="B63" s="5">
@@ -8571,7 +9392,7 @@
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="16">
+      <c r="A64" s="14">
         <v>41244</v>
       </c>
       <c r="B64" s="5">
@@ -8608,7 +9429,7 @@
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="16">
+      <c r="A65" s="14">
         <v>41275</v>
       </c>
       <c r="B65" s="5">
@@ -8645,7 +9466,7 @@
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
+      <c r="A66" s="14">
         <v>41306</v>
       </c>
       <c r="B66" s="5">
@@ -8682,7 +9503,7 @@
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
+      <c r="A67" s="14">
         <v>41334</v>
       </c>
       <c r="B67" s="5">
@@ -8719,7 +9540,7 @@
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
+      <c r="A68" s="14">
         <v>41365</v>
       </c>
       <c r="B68" s="5">
@@ -8756,7 +9577,7 @@
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
+      <c r="A69" s="14">
         <v>41395</v>
       </c>
       <c r="B69" s="5">
@@ -8793,7 +9614,7 @@
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="16">
+      <c r="A70" s="14">
         <v>41426</v>
       </c>
       <c r="B70" s="5">
@@ -8830,7 +9651,7 @@
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
+      <c r="A71" s="14">
         <v>41456</v>
       </c>
       <c r="B71" s="5">
@@ -8867,7 +9688,7 @@
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
+      <c r="A72" s="14">
         <v>41487</v>
       </c>
       <c r="B72" s="5">
@@ -8904,7 +9725,7 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
+      <c r="A73" s="14">
         <v>41518</v>
       </c>
       <c r="B73" s="5">
@@ -8941,7 +9762,7 @@
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
+      <c r="A74" s="14">
         <v>41548</v>
       </c>
       <c r="B74" s="5">
@@ -8978,7 +9799,7 @@
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
+      <c r="A75" s="14">
         <v>41579</v>
       </c>
       <c r="B75" s="5">
@@ -9015,7 +9836,7 @@
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="16">
+      <c r="A76" s="14">
         <v>41609</v>
       </c>
       <c r="B76" s="5">
@@ -9052,7 +9873,7 @@
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
+      <c r="A77" s="14">
         <v>41640</v>
       </c>
       <c r="B77" s="5">
@@ -9089,7 +9910,7 @@
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="16">
+      <c r="A78" s="14">
         <v>41671</v>
       </c>
       <c r="B78" s="5">
@@ -9126,7 +9947,7 @@
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="16">
+      <c r="A79" s="14">
         <v>41699</v>
       </c>
       <c r="B79" s="5">
@@ -9163,7 +9984,7 @@
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
+      <c r="A80" s="14">
         <v>41730</v>
       </c>
       <c r="B80" s="5">
@@ -9200,7 +10021,7 @@
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="16">
+      <c r="A81" s="14">
         <v>41760</v>
       </c>
       <c r="B81" s="5">
@@ -9237,7 +10058,7 @@
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="16">
+      <c r="A82" s="14">
         <v>41791</v>
       </c>
       <c r="B82" s="5">
@@ -9274,7 +10095,7 @@
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="16">
+      <c r="A83" s="14">
         <v>41821</v>
       </c>
       <c r="B83" s="5">
@@ -9311,7 +10132,7 @@
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="16">
+      <c r="A84" s="14">
         <v>41852</v>
       </c>
       <c r="B84" s="5">
@@ -9348,7 +10169,7 @@
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="16">
+      <c r="A85" s="14">
         <v>41883</v>
       </c>
       <c r="B85" s="5">
@@ -9385,7 +10206,7 @@
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="16">
+      <c r="A86" s="14">
         <v>41913</v>
       </c>
       <c r="B86" s="5">
@@ -9422,7 +10243,7 @@
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="16">
+      <c r="A87" s="14">
         <v>41944</v>
       </c>
       <c r="B87" s="5">
@@ -9459,7 +10280,7 @@
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="16">
+      <c r="A88" s="14">
         <v>41974</v>
       </c>
       <c r="B88" s="5">
@@ -9496,7 +10317,7 @@
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
+      <c r="A89" s="14">
         <v>42005</v>
       </c>
       <c r="B89" s="5">
@@ -9533,7 +10354,7 @@
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="16">
+      <c r="A90" s="14">
         <v>42036</v>
       </c>
       <c r="B90" s="5">
@@ -9570,7 +10391,7 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="16">
+      <c r="A91" s="14">
         <v>42064</v>
       </c>
       <c r="B91" s="5">
@@ -9607,7 +10428,7 @@
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="16">
+      <c r="A92" s="14">
         <v>42095</v>
       </c>
       <c r="B92" s="5">
@@ -9644,7 +10465,7 @@
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
+      <c r="A93" s="14">
         <v>42125</v>
       </c>
       <c r="B93" s="5">
@@ -9681,7 +10502,7 @@
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="16">
+      <c r="A94" s="14">
         <v>42156</v>
       </c>
       <c r="B94" s="5">
@@ -9718,7 +10539,7 @@
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
+      <c r="A95" s="14">
         <v>42186</v>
       </c>
       <c r="B95" s="5">
@@ -9755,7 +10576,7 @@
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="16">
+      <c r="A96" s="14">
         <v>42217</v>
       </c>
       <c r="B96" s="5">
@@ -9792,7 +10613,7 @@
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="16">
+      <c r="A97" s="14">
         <v>42248</v>
       </c>
       <c r="B97" s="5">
@@ -9829,7 +10650,7 @@
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="16">
+      <c r="A98" s="14">
         <v>42278</v>
       </c>
       <c r="B98" s="5">
@@ -9866,7 +10687,7 @@
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="16">
+      <c r="A99" s="14">
         <v>42309</v>
       </c>
       <c r="B99" s="5">
@@ -9903,7 +10724,7 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="16">
+      <c r="A100" s="14">
         <v>42339</v>
       </c>
       <c r="B100" s="5">
@@ -9940,7 +10761,7 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="16">
+      <c r="A101" s="14">
         <v>42370</v>
       </c>
       <c r="B101" s="5">
@@ -9977,7 +10798,7 @@
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="16">
+      <c r="A102" s="14">
         <v>42401</v>
       </c>
       <c r="B102" s="5">
@@ -10014,7 +10835,7 @@
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="16">
+      <c r="A103" s="14">
         <v>42430</v>
       </c>
       <c r="B103" s="5">
@@ -10051,7 +10872,7 @@
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="16">
+      <c r="A104" s="14">
         <v>42461</v>
       </c>
       <c r="B104" s="5">
@@ -10088,7 +10909,7 @@
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="16">
+      <c r="A105" s="14">
         <v>42491</v>
       </c>
       <c r="B105" s="5">
@@ -10125,7 +10946,7 @@
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="16">
+      <c r="A106" s="14">
         <v>42522</v>
       </c>
       <c r="B106" s="5">
@@ -10162,7 +10983,7 @@
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="16">
+      <c r="A107" s="14">
         <v>42552</v>
       </c>
       <c r="B107" s="5">
@@ -10199,7 +11020,7 @@
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="16">
+      <c r="A108" s="14">
         <v>42583</v>
       </c>
       <c r="B108" s="5">
@@ -10236,7 +11057,7 @@
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="16">
+      <c r="A109" s="14">
         <v>42614</v>
       </c>
       <c r="B109" s="5">
@@ -10273,7 +11094,7 @@
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="16">
+      <c r="A110" s="14">
         <v>42644</v>
       </c>
       <c r="B110" s="5">
@@ -10310,7 +11131,7 @@
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="16">
+      <c r="A111" s="14">
         <v>42675</v>
       </c>
       <c r="B111" s="5">
@@ -10347,7 +11168,7 @@
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="16">
+      <c r="A112" s="14">
         <v>42705</v>
       </c>
       <c r="B112" s="5">
@@ -10384,7 +11205,7 @@
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="16">
+      <c r="A113" s="14">
         <v>42736</v>
       </c>
       <c r="B113" s="5">
@@ -10421,7 +11242,7 @@
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="16">
+      <c r="A114" s="14">
         <v>42767</v>
       </c>
       <c r="B114" s="5">
@@ -10459,7 +11280,7 @@
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
+      <c r="A115" s="14">
         <v>42795</v>
       </c>
       <c r="B115" s="5">
@@ -10497,7 +11318,7 @@
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="16">
+      <c r="A116" s="14">
         <v>42826</v>
       </c>
       <c r="B116" s="5">
@@ -10535,7 +11356,7 @@
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="16">
+      <c r="A117" s="14">
         <v>42856</v>
       </c>
       <c r="B117" s="5">
@@ -10573,7 +11394,7 @@
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="16">
+      <c r="A118" s="14">
         <v>42887</v>
       </c>
       <c r="B118" s="5">
@@ -10611,7 +11432,7 @@
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="16">
+      <c r="A119" s="14">
         <v>42917</v>
       </c>
       <c r="B119" s="5">
@@ -10649,7 +11470,7 @@
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="16">
+      <c r="A120" s="14">
         <v>42948</v>
       </c>
       <c r="B120" s="5">
@@ -10687,7 +11508,7 @@
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="16">
+      <c r="A121" s="14">
         <v>42979</v>
       </c>
       <c r="B121" s="5">
@@ -10725,7 +11546,7 @@
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="16">
+      <c r="A122" s="14">
         <v>43009</v>
       </c>
       <c r="B122" s="5">
@@ -10763,7 +11584,7 @@
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="16">
+      <c r="A123" s="14">
         <v>43040</v>
       </c>
       <c r="B123" s="5">
@@ -10801,7 +11622,7 @@
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="16">
+      <c r="A124" s="14">
         <v>43070</v>
       </c>
       <c r="B124" s="5">
@@ -10839,7 +11660,7 @@
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="16">
+      <c r="A125" s="14">
         <v>43101</v>
       </c>
       <c r="B125" s="5">
@@ -10877,7 +11698,7 @@
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="16">
+      <c r="A126" s="14">
         <v>43132</v>
       </c>
       <c r="B126" s="5">
@@ -10915,7 +11736,7 @@
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="16">
+      <c r="A127" s="14">
         <v>43160</v>
       </c>
       <c r="B127" s="5">
@@ -10953,7 +11774,7 @@
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="16">
+      <c r="A128" s="14">
         <v>43191</v>
       </c>
       <c r="B128" s="5">
@@ -10991,7 +11812,7 @@
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="16">
+      <c r="A129" s="14">
         <v>43221</v>
       </c>
       <c r="B129" s="5">
@@ -11029,7 +11850,7 @@
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="16">
+      <c r="A130" s="14">
         <v>43252</v>
       </c>
       <c r="B130" s="5">
@@ -11067,7 +11888,7 @@
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="16">
+      <c r="A131" s="14">
         <v>43282</v>
       </c>
       <c r="B131" s="5">
@@ -11105,7 +11926,7 @@
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="16">
+      <c r="A132" s="14">
         <v>43313</v>
       </c>
       <c r="B132" s="5">
@@ -11143,7 +11964,7 @@
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="16">
+      <c r="A133" s="14">
         <v>43344</v>
       </c>
       <c r="B133" s="5">
@@ -11181,7 +12002,7 @@
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="16">
+      <c r="A134" s="14">
         <v>43374</v>
       </c>
       <c r="B134" s="5">
@@ -11219,7 +12040,7 @@
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="16">
+      <c r="A135" s="14">
         <v>43405</v>
       </c>
       <c r="B135" s="5">
@@ -11257,7 +12078,7 @@
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="16">
+      <c r="A136" s="14">
         <v>43435</v>
       </c>
       <c r="B136" s="5">
@@ -11295,7 +12116,7 @@
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="16">
+      <c r="A137" s="14">
         <v>43466</v>
       </c>
       <c r="B137" s="5">
@@ -11333,7 +12154,7 @@
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="16">
+      <c r="A138" s="14">
         <v>43497</v>
       </c>
       <c r="B138" s="5">
@@ -11371,7 +12192,7 @@
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="16">
+      <c r="A139" s="14">
         <v>43525</v>
       </c>
       <c r="B139" s="5">
@@ -11409,7 +12230,7 @@
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="16">
+      <c r="A140" s="14">
         <v>43556</v>
       </c>
       <c r="B140" s="5">
@@ -11447,7 +12268,7 @@
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="16">
+      <c r="A141" s="14">
         <v>43586</v>
       </c>
       <c r="B141" s="5">
@@ -11485,7 +12306,7 @@
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="16">
+      <c r="A142" s="14">
         <v>43617</v>
       </c>
       <c r="B142" s="5">
@@ -11523,7 +12344,7 @@
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="16">
+      <c r="A143" s="14">
         <v>43647</v>
       </c>
       <c r="B143" s="5">
@@ -11561,7 +12382,7 @@
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="16">
+      <c r="A144" s="14">
         <v>43678</v>
       </c>
       <c r="B144" s="5">
@@ -11599,7 +12420,7 @@
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="16">
+      <c r="A145" s="14">
         <v>43709</v>
       </c>
       <c r="B145" s="5">
@@ -11637,7 +12458,7 @@
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="16">
+      <c r="A146" s="14">
         <v>43739</v>
       </c>
       <c r="B146" s="5">
@@ -11675,7 +12496,7 @@
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="16">
+      <c r="A147" s="14">
         <v>43770</v>
       </c>
       <c r="B147" s="5">
@@ -11713,7 +12534,7 @@
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="16">
+      <c r="A148" s="14">
         <v>43800</v>
       </c>
       <c r="B148" s="5">
@@ -11751,7 +12572,7 @@
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" s="16">
+      <c r="A149" s="14">
         <v>43831</v>
       </c>
       <c r="B149" s="5">
@@ -11789,7 +12610,7 @@
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="16">
+      <c r="A150" s="14">
         <v>43862</v>
       </c>
       <c r="B150" s="5">
@@ -11827,7 +12648,7 @@
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" s="16">
+      <c r="A151" s="14">
         <v>43891</v>
       </c>
       <c r="B151" s="5">
@@ -11865,7 +12686,7 @@
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" s="16">
+      <c r="A152" s="14">
         <v>43922</v>
       </c>
       <c r="B152" s="5">
@@ -11903,7 +12724,7 @@
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A153" s="16">
+      <c r="A153" s="14">
         <v>43952</v>
       </c>
       <c r="B153" s="5">
@@ -11941,7 +12762,7 @@
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="16">
+      <c r="A154" s="14">
         <v>43983</v>
       </c>
       <c r="B154" s="5">
@@ -11979,7 +12800,7 @@
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="16">
+      <c r="A155" s="14">
         <v>44013</v>
       </c>
       <c r="B155" s="5">
@@ -12017,7 +12838,7 @@
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="16">
+      <c r="A156" s="14">
         <v>44044</v>
       </c>
       <c r="B156" s="5">
@@ -12055,7 +12876,7 @@
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157" s="16">
+      <c r="A157" s="14">
         <v>44075</v>
       </c>
       <c r="B157" s="5">
@@ -12093,7 +12914,7 @@
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" s="16">
+      <c r="A158" s="14">
         <v>44105</v>
       </c>
       <c r="B158" s="5">
@@ -12131,7 +12952,7 @@
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159" s="16">
+      <c r="A159" s="14">
         <v>44136</v>
       </c>
       <c r="B159" s="5">
@@ -12169,7 +12990,7 @@
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160" s="16">
+      <c r="A160" s="14">
         <v>44166</v>
       </c>
       <c r="B160" s="5">
@@ -12207,7 +13028,7 @@
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" s="16">
+      <c r="A161" s="14">
         <v>44197</v>
       </c>
       <c r="B161" s="5"/>
@@ -12565,469 +13386,472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE162B3-BD2C-4F70-9779-A1BF90BCE32C}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="I3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="18"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="18"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="23">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="20">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>8.9999999999999511E-2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>0.05</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>0.1</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="20">
         <f>C5</f>
         <v>0.125</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="37">
         <v>0.13</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="38">
         <v>0.15</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <v>0.15000099999999997</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="23">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20">
         <f t="shared" ref="C6:C12" si="0">1/8</f>
         <v>0.125</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>0.13</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>0.15</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>0.1</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="20">
         <f t="shared" ref="I6:I12" si="1">C6</f>
         <v>0.125</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <v>0.13</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="21">
         <v>0.05</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>0.1</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="23">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>0.13</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>0.15</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>0.1</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <v>0.13</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="21">
         <v>0.14999999999999991</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="22">
         <v>0.1</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="23">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>0.13</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>0.11900522773428815</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>0.1</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="20">
         <v>0.13</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="21">
         <v>0.15</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="22">
         <v>0.25</v>
       </c>
-      <c r="M8" s="18"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="23">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>0.13</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>0.15</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>0.14999999999999977</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <v>0.13</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="21">
         <v>0.15</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="22">
         <v>0.1</v>
       </c>
-      <c r="M9" s="18"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="23">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>0.13</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>0.12646309788239188</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>0.1</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="20">
         <v>9.0000999999999845E-2</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="21">
         <v>0.05</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="22">
         <v>0.1</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="23">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>0.13</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>0.10453167438331994</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>0.1</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="20">
         <v>0.13</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="21">
         <v>0.15</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="22">
         <v>0.1</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="23">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>0.13</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>0.15</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>0.25</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="20">
         <v>0.13</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="21">
         <v>0.15</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="22">
         <v>0.1</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="44">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="34">
         <f>SUM(C5:C12)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="35">
         <f>SUM(D5:D12)</f>
         <v>0.99999999999999956</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="35">
         <f>SUM(E5:E12)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <f>SUM(F5:F12)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="39">
         <f>SUM(I5:I12)</f>
         <v>1</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="39">
         <f>SUM(J5:J12)</f>
         <v>1.0000009999999999</v>
       </c>
-      <c r="K13" s="49">
-        <f t="shared" ref="J13:L13" si="2">SUM(K5:K12)</f>
+      <c r="K13" s="39">
+        <f t="shared" ref="K13" si="2">SUM(K5:K12)</f>
         <v>1</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="40">
         <f>SUM(L5:L12)</f>
         <v>1.0000009999999999</v>
       </c>
-      <c r="M13" s="46"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29" cm="1">
+      <c r="B14" s="56"/>
+      <c r="C14" s="24" cm="1">
         <f t="array" ref="C14">SUMPRODUCT(TRANSPOSE('Return-Risks'!N4:U4),C5:C12)</f>
         <v>7.6690288146389158E-3</v>
       </c>
-      <c r="D14" s="30" cm="1">
+      <c r="D14" s="25" cm="1">
         <f t="array" ref="D14">SUMPRODUCT(TRANSPOSE(D5:D12),'Return-Risks'!N4:U4)</f>
         <v>7.4159844288243801E-3</v>
       </c>
-      <c r="E14" s="30" cm="1">
+      <c r="E14" s="25" cm="1">
         <f t="array" ref="E14">SUMPRODUCT(TRANSPOSE(E5:E12),'Return-Risks'!N4:U4)</f>
         <v>7.0378065860311661E-3</v>
       </c>
-      <c r="F14" s="31" cm="1">
+      <c r="F14" s="26" cm="1">
         <f t="array" ref="F14">SUMPRODUCT(TRANSPOSE(F5:F12),'Return-Risks'!N4:U4)</f>
         <v>8.4939339491700832E-3</v>
       </c>
-      <c r="I14" s="29" cm="1">
+      <c r="I14" s="41" cm="1">
         <f t="array" ref="I14">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N4:$U4),I5:I12)</f>
         <v>7.6690288146389158E-3</v>
       </c>
-      <c r="J14" s="29" cm="1">
+      <c r="J14" s="24" cm="1">
         <f t="array" ref="J14">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N4:$U4),J5:J12)</f>
         <v>7.9817934579129047E-3</v>
       </c>
-      <c r="K14" s="29" cm="1">
+      <c r="K14" s="24" cm="1">
         <f t="array" ref="K14">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N4:$U4),K5:K12)</f>
         <v>9.0678311941743885E-3</v>
       </c>
-      <c r="L14" s="29" cm="1">
+      <c r="L14" s="26" cm="1">
         <f t="array" ref="L14">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N4:$U4),L5:L12)</f>
         <v>9.2355886965420023E-3</v>
       </c>
-      <c r="M14" s="18"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="30" cm="1">
+      <c r="B15" s="58"/>
+      <c r="C15" s="25" cm="1">
         <f t="array" ref="C15">SQRT(MMULT(MMULT(TRANSPOSE(C5:C12),'Return-Risks'!M8:T15),C5:C12))</f>
         <v>6.4658792987864797E-2</v>
       </c>
-      <c r="D15" s="30" cm="1">
+      <c r="D15" s="25" cm="1">
         <f t="array" ref="D15">SQRT(MMULT(MMULT(TRANSPOSE(D5:D12),'Return-Risks'!M8:T15),D5:D12))</f>
         <v>6.3121799343864499E-2</v>
       </c>
-      <c r="E15" s="30" cm="1">
+      <c r="E15" s="25" cm="1">
         <f t="array" ref="E15">SQRT(MMULT(MMULT(TRANSPOSE(E5:E12),'Return-Risks'!M8:T15),E5:E12))</f>
         <v>5.9759705231140665E-2</v>
       </c>
-      <c r="F15" s="34" cm="1">
+      <c r="F15" s="27" cm="1">
         <f t="array" ref="F15">SQRT(MMULT(MMULT(TRANSPOSE(F5:F12),'Return-Risks'!M8:T15),F5:F12))</f>
         <v>5.6373028665432874E-2</v>
       </c>
-      <c r="I15" s="30" cm="1">
+      <c r="I15" s="42" cm="1">
         <f t="array" ref="I15">SQRT(MMULT(MMULT(TRANSPOSE(I5:I12),'Return-Risks'!$M$8:$T$15),I5:I12))</f>
         <v>6.4658792987864797E-2</v>
       </c>
-      <c r="J15" s="30" cm="1">
+      <c r="J15" s="25" cm="1">
         <f t="array" ref="J15">SQRT(MMULT(MMULT(TRANSPOSE(J5:J12),'Return-Risks'!$M$8:$T$15),J5:J12))</f>
         <v>6.4304985521962593E-2</v>
       </c>
-      <c r="K15" s="30" cm="1">
+      <c r="K15" s="25" cm="1">
         <f t="array" ref="K15">SQRT(MMULT(MMULT(TRANSPOSE(K5:K12),'Return-Risks'!$M$8:$T$15),K5:K12))</f>
         <v>6.472391977867345E-2</v>
       </c>
-      <c r="L15" s="30" cm="1">
+      <c r="L15" s="27" cm="1">
         <f t="array" ref="L15">SQRT(MMULT(MMULT(TRANSPOSE(L5:L12),'Return-Risks'!$M$8:$T$15),L5:L12))</f>
         <v>6.9376435696443264E-2</v>
       </c>
-      <c r="M15" s="18"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37">
+      <c r="B16" s="60"/>
+      <c r="C16" s="28">
         <f>C15/C14</f>
         <v>8.4311579146034479</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="28">
         <f>D15/D14</f>
         <v>8.5115873623632847</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="28">
         <f>E15/E14</f>
         <v>8.4912400618899344</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="29">
         <f>F15/F14</f>
         <v>6.6368574329378811</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="43">
         <f>I15/I14</f>
         <v>8.4311579146034479</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="28">
         <f t="shared" ref="J16:L16" si="3">J15/J14</f>
         <v>8.0564582209544149</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="28">
         <f t="shared" si="3"/>
         <v>7.1377508461180019</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="29">
         <f t="shared" si="3"/>
         <v>7.5118585264000828</v>
       </c>
-      <c r="M16" s="18"/>
+      <c r="M16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13040,4 +13864,775 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A1C13A-F677-4F29-AC1E-65A13E10302C}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="44">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="J4" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="22">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="20">
+        <f>D6</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0.13</v>
+      </c>
+      <c r="L6" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0.15000099999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="22">
+        <f t="shared" ref="D7:D14" si="0">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" ref="J7:J14" si="1">D7</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.11085320996169121</v>
+      </c>
+      <c r="F9" s="22">
+        <v>6.8747597353402454E-2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.12044198283955625</v>
+      </c>
+      <c r="F11" s="22">
+        <v>7.0044906578066987E-2</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K11" s="20">
+        <v>9.0000999999999831E-2</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E12" s="22">
+        <v>9.8705807198752368E-2</v>
+      </c>
+      <c r="F12" s="22">
+        <v>6.1207505086996634E-2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.13</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.19999999999999993</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="M14" s="22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="49">
+        <f>SUM(D6:D14)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E15" s="49">
+        <f t="shared" ref="E15:F15" si="2">SUM(E6:E14)</f>
+        <v>1.0000009999999997</v>
+      </c>
+      <c r="F15" s="49">
+        <f t="shared" si="2"/>
+        <v>1.000000009018466</v>
+      </c>
+      <c r="G15" s="49">
+        <f>SUM(G6:G14)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J15" s="39">
+        <f>SUM(J6:J14)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="K15" s="39">
+        <f>SUM(K6:K13)</f>
+        <v>1.0000009999999999</v>
+      </c>
+      <c r="L15" s="39">
+        <f>SUM(L6:L13)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="40">
+        <f>SUM(M6:M13)</f>
+        <v>1.0000009999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="24" cm="1">
+        <f t="array" ref="D16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N$4:$U$4),D6:D13)+$K$2*D14</f>
+        <v>7.3724700574568144E-3</v>
+      </c>
+      <c r="E16" s="24" cm="1">
+        <f t="array" ref="E16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N$4:$U$4),E6:E13)+$K$2*E14</f>
+        <v>6.5934335804571417E-3</v>
+      </c>
+      <c r="F16" s="24" cm="1">
+        <f t="array" ref="F16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N$4:$U$4),F6:F13)+$K$2*F14</f>
+        <v>6.7318197799239535E-3</v>
+      </c>
+      <c r="G16" s="26" cm="1">
+        <f t="array" ref="G16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N$4:$U$4),G6:G13)+$K$2*G14</f>
+        <v>7.1352230517111332E-3</v>
+      </c>
+      <c r="J16" s="41" cm="1">
+        <f t="array" ref="J16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N4:$U4),J6:J13)+$K$2*J14</f>
+        <v>7.3724700574568144E-3</v>
+      </c>
+      <c r="K16" s="24" cm="1">
+        <f t="array" ref="K16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N4:$U4),K6:K13)+$K$2*K14</f>
+        <v>8.6317934579129042E-3</v>
+      </c>
+      <c r="L16" s="24" cm="1">
+        <f t="array" ref="L16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N4:$U4),L6:L13)+$K$2*L14</f>
+        <v>9.8178311941743892E-3</v>
+      </c>
+      <c r="M16" s="26" cm="1">
+        <f t="array" ref="M16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N4:$U4),M6:M13)+$K$2*M14</f>
+        <v>1.0485588696542002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="25" cm="1">
+        <f t="array" ref="D17">SQRT(MMULT(MMULT(TRANSPOSE(D6:D13),'Return-Risks'!$M$8:$T$15),D6:D13))</f>
+        <v>5.7474482655879809E-2</v>
+      </c>
+      <c r="E17" s="25" cm="1">
+        <f t="array" ref="E17">SQRT(MMULT(MMULT(TRANSPOSE(E6:E13),'Return-Risks'!$M$8:$T$15),E6:E13))</f>
+        <v>5.1539818513695879E-2</v>
+      </c>
+      <c r="F17" s="25" cm="1">
+        <f t="array" ref="F17">SQRT(MMULT(MMULT(TRANSPOSE(F6:F13),'Return-Risks'!$M$8:$T$15),F6:F13))</f>
+        <v>4.8774457003079953E-2</v>
+      </c>
+      <c r="G17" s="27" cm="1">
+        <f t="array" ref="G17">SQRT(MMULT(MMULT(TRANSPOSE(G6:G13),'Return-Risks'!$M$8:$T$15),G6:G13))</f>
+        <v>5.1727034390291825E-2</v>
+      </c>
+      <c r="J17" s="42" cm="1">
+        <f t="array" ref="J17">SQRT(MMULT(MMULT(TRANSPOSE(J6:J13),'Return-Risks'!$M$8:$T$15),J6:J13))</f>
+        <v>5.7474482655879809E-2</v>
+      </c>
+      <c r="K17" s="25" cm="1">
+        <f t="array" ref="K17">SQRT(MMULT(MMULT(TRANSPOSE(K6:K13),'Return-Risks'!$M$8:$T$15),K6:K13))</f>
+        <v>6.4304985521962593E-2</v>
+      </c>
+      <c r="L17" s="25" cm="1">
+        <f t="array" ref="L17">SQRT(MMULT(MMULT(TRANSPOSE(L6:L13),'Return-Risks'!$M$8:$T$15),L6:L13))</f>
+        <v>6.472391977867345E-2</v>
+      </c>
+      <c r="M17" s="27" cm="1">
+        <f t="array" ref="M17">SQRT(MMULT(MMULT(TRANSPOSE(M6:M13),'Return-Risks'!$M$8:$T$15),M6:M13))</f>
+        <v>6.9376435696443264E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="28">
+        <f>D17/D16</f>
+        <v>7.7958244940917449</v>
+      </c>
+      <c r="E18" s="28">
+        <f>E17/E16</f>
+        <v>7.8168404799677189</v>
+      </c>
+      <c r="F18" s="28">
+        <f>F17/F16</f>
+        <v>7.2453598874613574</v>
+      </c>
+      <c r="G18" s="29">
+        <f>G17/G16</f>
+        <v>7.249532917949483</v>
+      </c>
+      <c r="J18" s="43">
+        <f>J17/J16</f>
+        <v>7.7958244940917449</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" ref="K18:M18" si="3">K17/K16</f>
+        <v>7.4497826941182401</v>
+      </c>
+      <c r="L18" s="28">
+        <f t="shared" si="3"/>
+        <v>6.5924865174987639</v>
+      </c>
+      <c r="M18" s="29">
+        <f t="shared" si="3"/>
+        <v>6.6163605787172095</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E17:G17" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5932DB4-5AE6-40EA-BCC7-87DB88ED1161}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="65"/>
+      <c r="K2" s="50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="49">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="49">
+        <f t="shared" ref="D7:D14" si="0">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E7" s="49">
+        <v>6.9999999999999798E-2</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="49">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="F8" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="49">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E9" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="49">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="49">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="49">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E12" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="F12" s="49">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="G12" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E13" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="F13" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="49">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E14" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="F14" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="49">
+        <f>SUM(D6:D14)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E15" s="49">
+        <f>SUM(E6:E14)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F15" s="49">
+        <f t="shared" ref="F15:G15" si="1">SUM(F6:F14)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="49">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="24" cm="1">
+        <f t="array" ref="D16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N$4:$U$4),D6:D13)+$K$2*D14</f>
+        <v>7.3724700574568144E-3</v>
+      </c>
+      <c r="E16" s="24" cm="1">
+        <f t="array" ref="E16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N$4:$U$4),E6:E13)+$K$2*E14</f>
+        <v>8.5522924881633999E-3</v>
+      </c>
+      <c r="F16" s="24" cm="1">
+        <f t="array" ref="F16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N$4:$U$4),F6:F13)+$K$2*F14</f>
+        <v>9.1339195210741499E-3</v>
+      </c>
+      <c r="G16" s="26" cm="1">
+        <f t="array" ref="G16">SUMPRODUCT(TRANSPOSE('Return-Risks'!$N$4:$U$4),G6:G13)+$K$2*G14</f>
+        <v>7.985843776919143E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="25" cm="1">
+        <f t="array" ref="D17">SQRT(MMULT(MMULT(TRANSPOSE(D6:D13),'Return-Risks'!$M$8:$T$15),D6:D13))</f>
+        <v>5.7474482655879809E-2</v>
+      </c>
+      <c r="E17" s="25" cm="1">
+        <f t="array" ref="E17">SQRT(MMULT(MMULT(TRANSPOSE(E6:E13),'Return-Risks'!$M$8:$T$15),E6:E13))</f>
+        <v>5.6076669385447163E-2</v>
+      </c>
+      <c r="F17" s="25" cm="1">
+        <f t="array" ref="F17">SQRT(MMULT(MMULT(TRANSPOSE(F6:F13),'Return-Risks'!$M$8:$T$15),F6:F13))</f>
+        <v>5.4699270468750331E-2</v>
+      </c>
+      <c r="G17" s="27" cm="1">
+        <f t="array" ref="G17">SQRT(MMULT(MMULT(TRANSPOSE(G6:G13),'Return-Risks'!$M$8:$T$15),G6:G13))</f>
+        <v>5.3012344042536887E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="48">
+        <f>(D$16-$K$2)/D$17</f>
+        <v>4.1278667468163867E-2</v>
+      </c>
+      <c r="E18" s="48">
+        <f>(E$16-$K$2)/E$17</f>
+        <v>6.3347066205848512E-2</v>
+      </c>
+      <c r="F18" s="48">
+        <f t="shared" ref="F18:G18" si="2">(F$16-$K$2)/F$17</f>
+        <v>7.5575405040106639E-2</v>
+      </c>
+      <c r="G18" s="51">
+        <f t="shared" si="2"/>
+        <v>5.6323556915787651E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>